--- a/top vulnerable assets-v0.3.xlsx
+++ b/top vulnerable assets-v0.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xxu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xxu/LocalSync/未分类/GitHub/tsc_asset_query/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B98F9D-96EF-364D-A877-0F307420BE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF89898-7D25-EB45-9670-843F6FDB8678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4560" yWindow="460" windowWidth="22460" windowHeight="14520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C36" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="C37" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -383,21 +383,10 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>YOYO</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>：</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
+          <t>YOYO:</t>
+        </r>
+        <r>
+          <rPr>
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="宋体"/>
@@ -413,47 +402,34 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>使用的是</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>CPE</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>插件</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C37" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>YOYO:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-未包含118237，会导致误报。目前样本如pinpoint-websphere-plugin-1.7.3.jar</t>
+          <t>未包含</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>118237</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，会导致误报。目前样本如</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>pinpoint-websphere-plugin-1.7.3.jar</t>
         </r>
       </text>
     </comment>
@@ -767,7 +743,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="146">
   <si>
     <t>仪表盘示例</t>
   </si>
@@ -1040,9 +1016,6 @@
   </si>
   <si>
     <t>Plugin Text contains 'iis'  where plugin ID is '10107,11699'</t>
-  </si>
-  <si>
-    <t>Plugin Text Contains '45590' where plugin ID is '45590'</t>
   </si>
   <si>
     <t>Plugin Text Regex Match '(iisrstas.exe)|(W3SVC)' where plugin ID is '25221,34252,44401,70329,110483'</t>
@@ -1214,12 +1187,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1410,7 +1390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1419,42 +1399,42 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1466,10 +1446,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1799,10 +1782,10 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="C39" sqref="C39"/>
+      <selection pane="bottomRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1815,7 +1798,7 @@
     <row r="1" spans="1:7" s="3" customFormat="1" ht="17" thickBot="1"/>
     <row r="2" spans="1:7" ht="21">
       <c r="A2" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -1823,7 +1806,7 @@
     </row>
     <row r="3" spans="1:7" ht="21">
       <c r="A3" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -1840,7 +1823,7 @@
     </row>
     <row r="5" spans="1:7" ht="21">
       <c r="A5" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1848,7 +1831,7 @@
     </row>
     <row r="6" spans="1:7" ht="22" thickBot="1">
       <c r="A6" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -1864,7 +1847,7 @@
     <row r="9" spans="1:7" ht="19">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>2</v>
@@ -1873,7 +1856,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>0</v>
@@ -1893,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="68">
@@ -1910,7 +1893,7 @@
         <v>11</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="51">
@@ -1927,7 +1910,7 @@
         <v>15</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="68">
@@ -1944,7 +1927,7 @@
         <v>19</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="68">
@@ -1961,7 +1944,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="51">
@@ -1995,24 +1978,24 @@
         <v>31</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="3" customFormat="1" ht="51">
       <c r="A17" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="C17" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>100</v>
-      </c>
       <c r="E17" s="24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="51">
@@ -2328,11 +2311,11 @@
       <c r="B36" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="23" t="s">
         <v>91</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>92</v>
       </c>
       <c r="E36" s="24" t="s">
         <v>13</v>
@@ -2340,16 +2323,16 @@
     </row>
     <row r="37" spans="1:5" ht="51">
       <c r="A37" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="C37" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="D37" s="23" t="s">
         <v>95</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>96</v>
       </c>
       <c r="E37" s="24" t="s">
         <v>13</v>
@@ -2357,16 +2340,16 @@
     </row>
     <row r="38" spans="1:5" ht="51">
       <c r="A38" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="C38" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="D38" s="23" t="s">
         <v>103</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>104</v>
       </c>
       <c r="E38" s="24" t="s">
         <v>13</v>
@@ -2374,16 +2357,16 @@
     </row>
     <row r="39" spans="1:5" ht="51">
       <c r="A39" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="D39" s="23" t="s">
         <v>107</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>108</v>
       </c>
       <c r="E39" s="24" t="s">
         <v>13</v>
@@ -2391,16 +2374,16 @@
     </row>
     <row r="40" spans="1:5" ht="51">
       <c r="A40" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="C40" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="D40" s="23" t="s">
         <v>111</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>112</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>13</v>
@@ -2408,16 +2391,16 @@
     </row>
     <row r="41" spans="1:5" ht="51">
       <c r="A41" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="C41" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="D41" s="23" t="s">
         <v>115</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>116</v>
       </c>
       <c r="E41" s="24" t="s">
         <v>13</v>
@@ -2425,16 +2408,16 @@
     </row>
     <row r="42" spans="1:5" ht="51">
       <c r="A42" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="C42" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="D42" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="D42" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="E42" s="24" t="s">
         <v>13</v>
@@ -2442,16 +2425,16 @@
     </row>
     <row r="43" spans="1:5" ht="51">
       <c r="A43" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="C43" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="D43" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>13</v>
@@ -2459,10 +2442,10 @@
     </row>
     <row r="44" spans="1:5" ht="17">
       <c r="A44" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>126</v>
       </c>
       <c r="C44" s="22" t="s">
         <v>13</v>
@@ -2476,16 +2459,16 @@
     </row>
     <row r="45" spans="1:5" ht="51">
       <c r="A45" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="C45" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="D45" s="23" t="s">
         <v>129</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>130</v>
       </c>
       <c r="E45" s="24" t="s">
         <v>13</v>
@@ -2493,16 +2476,16 @@
     </row>
     <row r="46" spans="1:5" ht="52" thickBot="1">
       <c r="A46" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B46" s="28" t="s">
+      <c r="C46" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="29" t="s">
         <v>132</v>
-      </c>
-      <c r="C46" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D46" s="29" t="s">
-        <v>133</v>
       </c>
       <c r="E46" s="30" t="s">
         <v>13</v>
